--- a/results/CNN_Results_Combined_Cells.xlsx
+++ b/results/CNN_Results_Combined_Cells.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EB67E8B8-132B-46EE-BB2E-4A61A2F108F4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6F3DB200-2376-4A32-82B1-B561B001094F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,12 +12,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>MSE</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>inf</t>
+  </si>
+  <si>
+    <t>Otsu+CC</t>
   </si>
 </sst>
 </file>
@@ -429,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K10"/>
+  <dimension ref="A2:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,53 +467,45 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>99.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>99.5</v>
-      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>99.6</v>
+        <v>98.5</v>
       </c>
       <c r="C5" s="2">
-        <v>266.14846801757801</v>
+        <v>317.80254364013598</v>
       </c>
       <c r="D5" s="2">
-        <v>0.98157170825909001</v>
+        <v>0.978490472096057</v>
       </c>
       <c r="E5" s="2">
-        <v>0.89339673565194</v>
+        <v>0.81498512159566106</v>
       </c>
       <c r="F5" s="2">
-        <v>0.59840038059424905</v>
+        <v>0.59702331972450495</v>
       </c>
       <c r="G5" s="2">
-        <v>0.72044090374507597</v>
+        <v>0.67704060187414505</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>99.7</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2">
-        <v>260.82033920288001</v>
+        <v>295.974082946777</v>
       </c>
       <c r="D6" s="2">
-        <v>0.98181069698613499</v>
+        <v>0.97974672338327395</v>
       </c>
       <c r="E6" s="2">
-        <v>0.92236689983325904</v>
+        <v>0.83053994708293399</v>
       </c>
       <c r="F6" s="2">
-        <v>0.59264449233199001</v>
+        <v>0.60211165322188798</v>
       </c>
       <c r="G6" s="2">
-        <v>0.72176943154542605</v>
+        <v>0.69212342257259796</v>
       </c>
       <c r="K6" t="s">
         <v>6</v>
@@ -518,55 +513,205 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>99.8</v>
+        <v>99.2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>286.94503784179602</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.98038698477652397</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.84331092101435101</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.60204723264063997</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.70764948316398402</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>99.9</v>
-      </c>
-    </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>99.95</v>
+        <v>99.4</v>
       </c>
       <c r="C9" s="2">
-        <v>251.73176193237299</v>
+        <v>277.251216888427</v>
       </c>
       <c r="D9" s="2">
-        <v>0.98251848634416195</v>
+        <v>0.98093726256957503</v>
       </c>
       <c r="E9" s="2">
-        <v>1.3940835289074001</v>
+        <v>0.86119434470840395</v>
       </c>
       <c r="F9" s="2">
-        <v>0.51604747722100897</v>
+        <v>0.60114567200494995</v>
       </c>
       <c r="G9" s="2">
-        <v>0.70770685823260804</v>
+        <v>0.70733915826546001</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10">
+        <v>99.5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>271.58573913574202</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.98121455612406805</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.87483804310342095</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.59950967686338996</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.71065221555082403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>99.6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>266.14846801757801</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.98157170825909001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.89339673565194</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.59840038059424905</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.72044090374507597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>99.7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>260.82033920288001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.98181069698613499</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.92236689983325904</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.59264449233199001</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.72176943154542605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>99.8</v>
+      </c>
+      <c r="C13" s="2">
+        <v>254.83735656738199</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.98217248614795005</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.97285923423878395</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.58109995969777894</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.734077070700899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>99.9</v>
+      </c>
+      <c r="C14" s="2">
+        <v>249.81681060791001</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.98257922744967396</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.12757949708295</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.55456468836207296</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.74259785929298305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>99.95</v>
+      </c>
+      <c r="C15" s="2">
+        <v>251.73176193237299</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.98251848634416195</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.3940835289074001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.51604747722100897</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.70770685823260804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>99.99</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C16" s="2">
         <v>261.58433532714798</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D16" s="2">
         <v>0.98213298722049602</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F16" s="2">
         <v>0.43269284170645</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G16" s="2">
         <v>0.62044874050565302</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2">
+        <v>492.61874771118102</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.96178373089795299</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.80324402070840395</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.56775847140178604</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.61855112096831</v>
       </c>
     </row>
   </sheetData>

--- a/results/CNN_Results_Combined_Cells.xlsx
+++ b/results/CNN_Results_Combined_Cells.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6F3DB200-2376-4A32-82B1-B561B001094F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5B9DB42C-BDDC-4D00-9723-4EBB95E748EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>MSE</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Otsu+CC</t>
+  </si>
+  <si>
+    <t>CNN</t>
   </si>
 </sst>
 </file>
@@ -432,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K20"/>
+  <dimension ref="A2:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +446,7 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -711,6 +714,63 @@
         <v>0.56775847140178604</v>
       </c>
       <c r="G20" s="2">
+        <v>0.61855112096831</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2">
+        <v>266.14846801757801</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.98157170825909001</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.89339673565194</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.59840038059424905</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.72044090374507597</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2">
+        <v>492.61874771118102</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.96178373089795299</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.80324402070840395</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.56775847140178604</v>
+      </c>
+      <c r="G28" s="2">
         <v>0.61855112096831</v>
       </c>
     </row>
